--- a/PFOA inhalation Rat/Data/IV_male_rats_tissues_high_kudo_2007.xlsx
+++ b/PFOA inhalation Rat/Data/IV_male_rats_tissues_high_kudo_2007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Desktop\NTUA Post-Doc\PBK models-Evie\PFOA Inhalation\Data\Kudo et al., 2007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA8BA1-CA69-4775-BFAC-725BA002141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02C207-DEE0-4505-9033-47805116CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28470" yWindow="1860" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="5244" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
     <t>iv</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ)</t>
-  </si>
-  <si>
     <t>Dose_mg_per_kg</t>
+  </si>
+  <si>
+    <t>Concentration_microg_per_g_organ</t>
   </si>
 </sst>
 </file>
@@ -160,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +467,8 @@
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -478,10 +479,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>

--- a/PFOA inhalation Rat/Data/IV_male_rats_tissues_high_kudo_2007.xlsx
+++ b/PFOA inhalation Rat/Data/IV_male_rats_tissues_high_kudo_2007.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02C207-DEE0-4505-9033-47805116CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692E1CA-EABB-43C3-AF5A-ACD612D28DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="5244" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,9 +48,6 @@
     <t>Intestine</t>
   </si>
   <si>
-    <t>Testis</t>
-  </si>
-  <si>
     <t>Spleen</t>
   </si>
   <si>
@@ -93,6 +79,9 @@
   </si>
   <si>
     <t>Concentration_microg_per_g_organ</t>
+  </si>
+  <si>
+    <t>Gonads</t>
   </si>
 </sst>
 </file>
@@ -144,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,36 +448,36 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -502,12 +491,12 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,12 +510,12 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -540,12 +529,12 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -559,12 +548,12 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,14 +567,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -597,14 +586,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -616,14 +605,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -635,14 +624,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -654,14 +643,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -673,14 +662,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -692,14 +681,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -711,14 +700,14 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -730,12 +719,12 @@
         <v>16.559999999999999</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
